--- a/python/Master.xlsx
+++ b/python/Master.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Melle\Documents\Paradox Interactive\Europa Universalis IV\mod\GitBranch\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804F8AF-9C1A-4D32-AC5D-B6BF9F794665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1F1DA-BEAF-483E-B053-C2C67E97BBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4262D642-3771-4E7D-B769-258293C96CA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4262D642-3771-4E7D-B769-258293C96CA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Replace" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Polcies" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +34,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>This spreadsheet is used for replacing</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Replacer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Eval</t>
+  </si>
+  <si>
+    <t>Filename mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>FileRegex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */common/polcies/*.txt</t>
+  </si>
+  <si>
+    <t>Mode=Polcies</t>
+  </si>
+  <si>
+    <t>sheetname</t>
+  </si>
+  <si>
+    <t>Name to english</t>
+  </si>
+  <si>
+    <t>eval</t>
   </si>
 </sst>
 </file>
@@ -387,19 +424,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E562B73-1E39-4E50-ABA1-6DFEFC1675CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3258B4A1-1EF4-47EB-95B8-F441A5B19794}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/python/Master.xlsx
+++ b/python/Master.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Melle\Documents\Paradox Interactive\Europa Universalis IV\mod\GitBranch\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F1F1DA-BEAF-483E-B053-C2C67E97BBB2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06906E6B-C98C-4467-86F2-15FDD7AB1903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{4262D642-3771-4E7D-B769-258293C96CA6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4262D642-3771-4E7D-B769-258293C96CA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Master" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>This spreadsheet is used for replacing</t>
   </si>
@@ -63,9 +63,6 @@
     <t xml:space="preserve"> */common/polcies/*.txt</t>
   </si>
   <si>
-    <t>Mode=Polcies</t>
-  </si>
-  <si>
     <t>sheetname</t>
   </si>
   <si>
@@ -73,6 +70,12 @@
   </si>
   <si>
     <t>eval</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>self.mode=Polcies</t>
   </si>
 </sst>
 </file>
@@ -426,8 +429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E562B73-1E39-4E50-ABA1-6DFEFC1675CB}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +453,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -462,7 +465,7 @@
         <v>4</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -476,7 +479,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -488,7 +491,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3258B4A1-1EF4-47EB-95B8-F441A5B19794}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -516,12 +519,12 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>

--- a/python/Master.xlsx
+++ b/python/Master.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Melle\Documents\Paradox Interactive\Europa Universalis IV\mod\GitBranch\python\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1804F8AF-9C1A-4D32-AC5D-B6BF9F794665}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06906E6B-C98C-4467-86F2-15FDD7AB1903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4262D642-3771-4E7D-B769-258293C96CA6}"/>
   </bookViews>
   <sheets>
-    <sheet name="Replace" sheetId="1" r:id="rId1"/>
+    <sheet name="Master" sheetId="1" r:id="rId1"/>
+    <sheet name="Polcies" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,9 +34,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>This spreadsheet is used for replacing</t>
+  </si>
+  <si>
+    <t>Regex</t>
+  </si>
+  <si>
+    <t>Replacer</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Eval</t>
+  </si>
+  <si>
+    <t>Filename mode</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>FileRegex</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> */common/polcies/*.txt</t>
+  </si>
+  <si>
+    <t>sheetname</t>
+  </si>
+  <si>
+    <t>Name to english</t>
+  </si>
+  <si>
+    <t>eval</t>
+  </si>
+  <si>
+    <t>Mode</t>
+  </si>
+  <si>
+    <t>self.mode=Polcies</t>
   </si>
 </sst>
 </file>
@@ -387,19 +427,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E562B73-1E39-4E50-ABA1-6DFEFC1675CB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="54.5703125" customWidth="1"/>
-    <col min="2" max="2" width="57.85546875" customWidth="1"/>
+    <col min="2" max="2" width="22.42578125" customWidth="1"/>
+    <col min="3" max="3" width="57.85546875" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3258B4A1-1EF4-47EB-95B8-F441A5B19794}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.28515625" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
